--- a/Estimering/priser.xlsx
+++ b/Estimering/priser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F2C32F-201D-9B46-90E0-F1A6BB51FFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0FCD2A-A073-FC49-B5F0-3A9DE0917BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2960" windowWidth="23440" windowHeight="12480" xr2:uid="{AC76E677-5D5A-0548-B603-6EE984041B81}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>Priser</t>
   </si>
@@ -259,12 +259,48 @@
   <si>
     <t>12.7 Andre tjenester</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Varer</t>
+  </si>
+  <si>
+    <t>Fødevarer</t>
+  </si>
+  <si>
+    <t>Andre varer</t>
+  </si>
+  <si>
+    <t>Bolig</t>
+  </si>
+  <si>
+    <t>Energi</t>
+  </si>
+  <si>
+    <t>Tjenester</t>
+  </si>
+  <si>
+    <t>Biler</t>
+  </si>
+  <si>
+    <t>Off transport</t>
+  </si>
+  <si>
+    <t>Turisme</t>
+  </si>
+  <si>
+    <t>MAKRO_gruppe</t>
+  </si>
+  <si>
+    <t>Egen_gruppe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +321,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -316,6 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7834,15 +7879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F9B7EC-F037-5649-BFB5-05B4DE3B38FA}">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7924,8 +7969,14 @@
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -8033,8 +8084,14 @@
         <f>[1]FU05!AA2/[1]FU05!AA49/([1]FU05!$B2/[1]FU05!$B49)</f>
         <v>1.5105697634457511</v>
       </c>
+      <c r="AB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -8142,8 +8199,14 @@
         <f>[1]FU05!AA3/[1]FU05!AA50/([1]FU05!$B3/[1]FU05!$B50)</f>
         <v>1.6344181159350464</v>
       </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -8251,8 +8314,14 @@
         <f>[1]FU05!AA4/[1]FU05!AA51/([1]FU05!$B4/[1]FU05!$B51)</f>
         <v>1.5392258464021318</v>
       </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -8360,8 +8429,14 @@
         <f>[1]FU05!AA5/[1]FU05!AA52/([1]FU05!$B5/[1]FU05!$B52)</f>
         <v>1.2887885598718374</v>
       </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -8469,8 +8544,14 @@
         <f>[1]FU05!AA6/[1]FU05!AA53/([1]FU05!$B6/[1]FU05!$B53)</f>
         <v>1.8811036409107151</v>
       </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -8552,8 +8633,14 @@
       <c r="AA7" s="3">
         <v>1</v>
       </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -8661,8 +8748,14 @@
         <f>[1]FU05!AA8/[1]FU05!AA55/([1]FU05!$B8/[1]FU05!$B55)</f>
         <v>0.8480675279008083</v>
       </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -8770,8 +8863,14 @@
         <f>[1]FU05!AA9/[1]FU05!AA56/([1]FU05!$B9/[1]FU05!$B56)</f>
         <v>1.5843801130042101</v>
       </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -8879,8 +8978,14 @@
         <f>[1]FU05!AA10/[1]FU05!AA57/([1]FU05!$B10/[1]FU05!$B57)</f>
         <v>1.7538795083146015</v>
       </c>
+      <c r="AB10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -8988,8 +9093,14 @@
         <f>[1]FU05!AA11/[1]FU05!AA58/([1]FU05!$B11/[1]FU05!$B58)</f>
         <v>1.5863433729985621</v>
       </c>
+      <c r="AB11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -9097,8 +9208,14 @@
         <f>[1]FU05!AA12/[1]FU05!AA59/([1]FU05!$B12/[1]FU05!$B59)</f>
         <v>1.7383424722916683</v>
       </c>
+      <c r="AB12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -9206,8 +9323,14 @@
         <f>[1]FU05!AA13/[1]FU05!AA60/([1]FU05!$B13/[1]FU05!$B60)</f>
         <v>2.5684993750775189</v>
       </c>
+      <c r="AB13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -9315,8 +9438,14 @@
         <f>[1]FU05!AA14/[1]FU05!AA61/([1]FU05!$B14/[1]FU05!$B61)</f>
         <v>1.7589536803701331</v>
       </c>
+      <c r="AB14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -9424,8 +9553,14 @@
         <f>[1]FU05!AA15/[1]FU05!AA62/([1]FU05!$B15/[1]FU05!$B62)</f>
         <v>1.1870361381863743</v>
       </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -9533,8 +9668,14 @@
         <f>[1]FU05!AA16/[1]FU05!AA63/([1]FU05!$B16/[1]FU05!$B63)</f>
         <v>1.2511894995898276</v>
       </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -9642,8 +9783,14 @@
         <f>[1]FU05!AA17/[1]FU05!AA64/([1]FU05!$B17/[1]FU05!$B64)</f>
         <v>0.94729545922012093</v>
       </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -9751,8 +9898,14 @@
         <f>[1]FU05!AA18/[1]FU05!AA65/([1]FU05!$B18/[1]FU05!$B65)</f>
         <v>1.4057693942141134</v>
       </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -9860,8 +10013,14 @@
         <f>[1]FU05!AA19/[1]FU05!AA66/([1]FU05!$B19/[1]FU05!$B66)</f>
         <v>1.2649633926437682</v>
       </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -9969,8 +10128,14 @@
         <f>[1]FU05!AA20/[1]FU05!AA67/([1]FU05!$B20/[1]FU05!$B67)</f>
         <v>1.7640162036314611</v>
       </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -10078,8 +10243,14 @@
         <f>[1]FU05!AA21/[1]FU05!AA68/([1]FU05!$B21/[1]FU05!$B68)</f>
         <v>0.95777820114989032</v>
       </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -10187,8 +10358,14 @@
         <f>[1]FU05!AA22/[1]FU05!AA69/([1]FU05!$B22/[1]FU05!$B69)</f>
         <v>1.8284121967233138</v>
       </c>
+      <c r="AB22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -10296,8 +10473,14 @@
         <f>[1]FU05!AA23/[1]FU05!AA70/([1]FU05!$B23/[1]FU05!$B70)</f>
         <v>1.5666666666666667</v>
       </c>
+      <c r="AB23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -10405,8 +10588,14 @@
         <f>[1]FU05!AA24/[1]FU05!AA71/([1]FU05!$B24/[1]FU05!$B71)</f>
         <v>1.0740191327221915</v>
       </c>
+      <c r="AB24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -10514,8 +10703,14 @@
         <f>[1]FU05!AA25/[1]FU05!AA72/([1]FU05!$B25/[1]FU05!$B72)</f>
         <v>1.9245160303511584</v>
       </c>
+      <c r="AB25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -10623,8 +10818,14 @@
         <f>[1]FU05!AA26/[1]FU05!AA73/([1]FU05!$B26/[1]FU05!$B73)</f>
         <v>1.7695259713910292</v>
       </c>
+      <c r="AB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -10732,8 +10933,14 @@
         <f>[1]FU05!AA27/[1]FU05!AA74/([1]FU05!$B27/[1]FU05!$B74)</f>
         <v>4.6800237107291043</v>
       </c>
+      <c r="AB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -10841,8 +11048,14 @@
         <f>[1]FU05!AA28/[1]FU05!AA75/([1]FU05!$B28/[1]FU05!$B75)</f>
         <v>0.2258616880247459</v>
       </c>
+      <c r="AB28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -10950,8 +11163,14 @@
         <f>[1]FU05!AA29/[1]FU05!AA76/([1]FU05!$B29/[1]FU05!$B76)</f>
         <v>0.88881422523263831</v>
       </c>
+      <c r="AB29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -11059,8 +11278,14 @@
         <f>[1]FU05!AA30/[1]FU05!AA77/([1]FU05!$B30/[1]FU05!$B77)</f>
         <v>0.3716811812053547</v>
       </c>
+      <c r="AB30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -11168,8 +11393,14 @@
         <f>[1]FU05!AA31/[1]FU05!AA78/([1]FU05!$B31/[1]FU05!$B78)</f>
         <v>1.6862586815024909</v>
       </c>
+      <c r="AB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -11277,8 +11508,14 @@
         <f>[1]FU05!AA32/[1]FU05!AA79/([1]FU05!$B32/[1]FU05!$B79)</f>
         <v>1.3312581302575666</v>
       </c>
+      <c r="AB32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -11386,8 +11623,14 @@
         <f>[1]FU05!AA33/[1]FU05!AA80/([1]FU05!$B33/[1]FU05!$B80)</f>
         <v>1.993378210311036</v>
       </c>
+      <c r="AB33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -11495,8 +11738,14 @@
         <f>[1]FU05!AA34/[1]FU05!AA81/([1]FU05!$B34/[1]FU05!$B81)</f>
         <v>2.4112264560192891</v>
       </c>
+      <c r="AB34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -11604,8 +11853,14 @@
         <f>[1]FU05!AA35/[1]FU05!AA82/([1]FU05!$B35/[1]FU05!$B82)</f>
         <v>1.6685812152115529</v>
       </c>
+      <c r="AB35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
@@ -11713,8 +11968,14 @@
         <f>[1]FU05!AA36/[1]FU05!AA83/([1]FU05!$B36/[1]FU05!$B83)</f>
         <v>2.7288244766505634</v>
       </c>
+      <c r="AB36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
@@ -11822,8 +12083,14 @@
         <f>[1]FU05!AA37/[1]FU05!AA84/([1]FU05!$B37/[1]FU05!$B84)</f>
         <v>1.8604728604728604</v>
       </c>
+      <c r="AB37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -11931,8 +12198,14 @@
         <f>[1]FU05!AA38/[1]FU05!AA85/([1]FU05!$B38/[1]FU05!$B85)</f>
         <v>2.6621004566210043</v>
       </c>
+      <c r="AB38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -12040,8 +12313,14 @@
         <f>[1]FU05!AA39/[1]FU05!AA86/([1]FU05!$B39/[1]FU05!$B86)</f>
         <v>2.7222011704770326</v>
       </c>
+      <c r="AB39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -12149,8 +12428,14 @@
         <f>[1]FU05!AA40/[1]FU05!AA87/([1]FU05!$B40/[1]FU05!$B87)</f>
         <v>1.8875274248501939</v>
       </c>
+      <c r="AB40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -12258,8 +12543,14 @@
         <f>[1]FU05!AA41/[1]FU05!AA88/([1]FU05!$B41/[1]FU05!$B88)</f>
         <v>1.7567260952498156</v>
       </c>
+      <c r="AB41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -12367,8 +12658,14 @@
         <f>[1]FU05!AA42/[1]FU05!AA89/([1]FU05!$B42/[1]FU05!$B89)</f>
         <v>1.4878249422308316</v>
       </c>
+      <c r="AB42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -12450,8 +12747,14 @@
       <c r="AA43" s="3">
         <v>1</v>
       </c>
+      <c r="AB43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
@@ -12559,8 +12862,14 @@
         <f>[1]FU05!AA44/[1]FU05!AA91/([1]FU05!$B44/[1]FU05!$B91)</f>
         <v>1.4767288449685312</v>
       </c>
+      <c r="AB44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -12668,8 +12977,14 @@
         <f>[1]FU05!AA45/[1]FU05!AA92/([1]FU05!$B45/[1]FU05!$B92)</f>
         <v>1.6667941531338581</v>
       </c>
+      <c r="AB45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -12777,8 +13092,14 @@
         <f>[1]FU05!AA46/[1]FU05!AA93/([1]FU05!$B46/[1]FU05!$B93)</f>
         <v>4.5708114453411587E-2</v>
       </c>
+      <c r="AB46" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -12886,8 +13207,14 @@
         <f>[1]FU05!AA47/[1]FU05!AA94/([1]FU05!$B47/[1]FU05!$B94)</f>
         <v>2.2263487747454986</v>
       </c>
+      <c r="AB47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -12994,6 +13321,12 @@
       <c r="AA48" s="3">
         <f>[1]FU05!AA48/[1]FU05!AA95/([1]FU05!$B48/[1]FU05!$B95)</f>
         <v>1.9682242990654204</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Estimering/priser.xlsx
+++ b/Estimering/priser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0FCD2A-A073-FC49-B5F0-3A9DE0917BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5EC5F-AF5F-8642-8AEB-89E072EB7BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2960" windowWidth="23440" windowHeight="12480" xr2:uid="{AC76E677-5D5A-0548-B603-6EE984041B81}"/>
   </bookViews>
@@ -7881,11 +7881,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F9B7EC-F037-5649-BFB5-05B4DE3B38FA}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A41" activeCellId="1" sqref="A35:AC35 A41:AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/Estimering/priser.xlsx
+++ b/Estimering/priser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5EC5F-AF5F-8642-8AEB-89E072EB7BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0662C88-B612-B448-ADE3-9E2A6C41BCE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2960" windowWidth="23440" windowHeight="12480" xr2:uid="{AC76E677-5D5A-0548-B603-6EE984041B81}"/>
   </bookViews>
@@ -7337,7 +7337,7 @@
         </row>
         <row r="93">
           <cell r="B93">
-            <v>256</v>
+            <v>12547</v>
           </cell>
           <cell r="C93">
             <v>12547</v>
@@ -7576,7 +7576,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7881,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F9B7EC-F037-5649-BFB5-05B4DE3B38FA}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A41" activeCellId="1" sqref="A35:AC35 A41:AC41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12997,103 +12997,103 @@
       </c>
       <c r="C46" s="3">
         <f>[1]FU05!C46/[1]FU05!C93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.1552813336747446E-2</v>
+        <v>1.0563404255319149</v>
       </c>
       <c r="D46" s="3">
         <f>[1]FU05!D46/[1]FU05!D93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.1867629740127188E-2</v>
+        <v>1.0717701185522492</v>
       </c>
       <c r="E46" s="3">
         <f>[1]FU05!E46/[1]FU05!E93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.2645592032894311E-2</v>
+        <v>1.1098993876434566</v>
       </c>
       <c r="F46" s="3">
         <f>[1]FU05!F46/[1]FU05!F93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.3167156983696167E-2</v>
+        <v>1.135462182322015</v>
       </c>
       <c r="G46" s="3">
         <f>[1]FU05!G46/[1]FU05!G93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.4467586012347154E-2</v>
+        <v>1.1991984441285928</v>
       </c>
       <c r="H46" s="3">
         <f>[1]FU05!H46/[1]FU05!H93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.4964662854488982E-2</v>
+        <v>1.2235610345127863</v>
       </c>
       <c r="I46" s="3">
         <f>[1]FU05!I46/[1]FU05!I93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.6530544780211624E-2</v>
+        <v>1.3003075990520128</v>
       </c>
       <c r="J46" s="3">
         <f>[1]FU05!J46/[1]FU05!J93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>2.9072080284079999E-2</v>
+        <v>1.4248726223607491</v>
       </c>
       <c r="K46" s="3">
         <f>[1]FU05!K46/[1]FU05!K93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.1612152351361084E-2</v>
+        <v>1.5493659201270606</v>
       </c>
       <c r="L46" s="3">
         <f>[1]FU05!L46/[1]FU05!L93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.2951243745468546E-2</v>
+        <v>1.6149970909156008</v>
       </c>
       <c r="M46" s="3">
         <f>[1]FU05!M46/[1]FU05!M93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.4027903820415949E-2</v>
+        <v>1.6677660516982771</v>
       </c>
       <c r="N46" s="3">
         <f>[1]FU05!N46/[1]FU05!N93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.5544837679782684E-2</v>
+        <v>1.7421135873759115</v>
       </c>
       <c r="O46" s="3">
         <f>[1]FU05!O46/[1]FU05!O93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.5483718042778938E-2</v>
+        <v>1.7391180089169818</v>
       </c>
       <c r="P46" s="3">
         <f>[1]FU05!P46/[1]FU05!P93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.6030025994284905E-2</v>
+        <v>1.7658935005870808</v>
       </c>
       <c r="Q46" s="3">
         <f>[1]FU05!Q46/[1]FU05!Q93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.7840985442329229E-2</v>
+        <v>1.8546517357222845</v>
       </c>
       <c r="R46" s="3">
         <f>[1]FU05!R46/[1]FU05!R93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>3.9802198983453149E-2</v>
+        <v>1.9507741822085416</v>
       </c>
       <c r="S46" s="3">
         <f>[1]FU05!S46/[1]FU05!S93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.1346079720226171E-2</v>
+        <v>2.0264424306628039</v>
       </c>
       <c r="T46" s="3">
         <f>[1]FU05!T46/[1]FU05!T93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.3037822936142917E-2</v>
+        <v>2.1093576733585357</v>
       </c>
       <c r="U46" s="3">
         <f>[1]FU05!U46/[1]FU05!U93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.0776726861341726E-2</v>
+        <v>1.998537468473651</v>
       </c>
       <c r="V46" s="3">
         <f>[1]FU05!V46/[1]FU05!V93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.2777796570036872E-2</v>
+        <v>2.0966133342353617</v>
       </c>
       <c r="W46" s="3">
         <f>[1]FU05!W46/[1]FU05!W93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.3574468085106385E-2</v>
+        <v>2.1356595744680851</v>
       </c>
       <c r="X46" s="3">
         <f>[1]FU05!X46/[1]FU05!X93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.461717102138784E-2</v>
+        <v>2.1867642375209111</v>
       </c>
       <c r="Y46" s="3">
         <f>[1]FU05!Y46/[1]FU05!Y93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.4777327985151702E-2</v>
+        <v>2.1946138055847597</v>
       </c>
       <c r="Z46" s="3">
         <f>[1]FU05!Z46/[1]FU05!Z93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.5611638129648996E-2</v>
+        <v>2.2355047797371328</v>
       </c>
       <c r="AA46" s="3">
         <f>[1]FU05!AA46/[1]FU05!AA93/([1]FU05!$B46/[1]FU05!$B93)</f>
-        <v>4.5708114453411587E-2</v>
+        <v>2.2402332501834188</v>
       </c>
       <c r="AB46" t="s">
         <v>80</v>
